--- a/medicine/Handicap/John_McFall_(astronaute)/John_McFall_(astronaute).xlsx
+++ b/medicine/Handicap/John_McFall_(astronaute)/John_McFall_(astronaute).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John McFall est un sprinteur paralympique, médaille de bronze au 100 mètres aux Jeux paralympiques de Pékin en 2008, et le premier « parastronaute » de l'Agence spatiale européenne[1].
-Il s’est lancé à 28 ans dans des études de médecine et s’est spécialisé dans la traumatologie orthopédique. Il a été diplômé en 2014 [2] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John McFall est un sprinteur paralympique, médaille de bronze au 100 mètres aux Jeux paralympiques de Pékin en 2008, et le premier « parastronaute » de l'Agence spatiale européenne.
+Il s’est lancé à 28 ans dans des études de médecine et s’est spécialisé dans la traumatologie orthopédique. Il a été diplômé en 2014  .
 Parallèlement à ses études, il s’est engagé dans un programme destiné à soutenir les sportifs paralympiques en devenir et il a travaillé pour l’organisation des jeux paralympiques de Londres en 2012.
 Il exerce en tant que médecin dans le sud de l’Angleterre.
 </t>
